--- a/S2/Gestion de projet et entrepreunariat/Projet seul/Budget.xlsx
+++ b/S2/Gestion de projet et entrepreunariat/Projet seul/Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jey\Desktop\DUT MMI\Cours DUT MMI\S2\Gestion de projet et entrepreunariat\Projet seul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2B1FF5B-716B-466F-9061-F50842141819}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CED627-7184-4B65-A790-E0491FA0BDE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D30BBDD-2F9E-478E-9892-80EC7849FA8F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Brief Conception graphique</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>Chef de projet</t>
+  </si>
+  <si>
+    <t>Brief Charte graphique (graphiste)</t>
+  </si>
+  <si>
+    <t>Formation des commerçants (equipe de 5 personnes)</t>
+  </si>
+  <si>
+    <t>Référencement (dev)</t>
+  </si>
+  <si>
+    <t>Publicité sur les réseaux (community manager)</t>
   </si>
 </sst>
 </file>
@@ -200,20 +212,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FEA0E8-B3BF-4455-8BE2-92848F92B77A}">
-  <dimension ref="B1:D16"/>
+  <dimension ref="B1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,133 +562,165 @@
     <col min="2" max="2" width="64.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>900</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <f>900*4</f>
         <v>3600</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <f>7*500</f>
         <v>3500</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <f>14*1900</f>
         <v>26600</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <f>14*1900</f>
         <v>26600</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>900</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <f>900 + 8*500</f>
         <v>4900</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <f>6*900</f>
         <v>5400</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <f>900</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <f>5*500</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="4">
-        <f>SUM(C2:C12)</f>
-        <v>77200</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
+      <c r="C17" s="10">
+        <f>SUM(C2:C16)</f>
+        <v>81600</v>
       </c>
     </row>
   </sheetData>
